--- a/Shablon/TDS2024C.xlsx
+++ b/Shablon/TDS2024C.xlsx
@@ -2654,7 +2654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2730,11 +2730,38 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2742,17 +2769,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2763,29 +2781,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3121,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3136,45 +3139,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,18 +3208,18 @@
       <c r="E7" s="10"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3243,90 +3246,90 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="31" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="47" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
@@ -3337,17 +3340,17 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3391,17 +3394,17 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3454,7 +3457,7 @@
       <c r="F28" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3498,7 +3501,7 @@
       <c r="F30" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="34" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3521,7 +3524,7 @@
       <c r="F31" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G31" s="34"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
@@ -3542,7 +3545,7 @@
       <c r="F32" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
@@ -3563,7 +3566,7 @@
       <c r="F33" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="34"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
@@ -3584,7 +3587,7 @@
       <c r="F34" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -3605,7 +3608,7 @@
       <c r="F35" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
@@ -3626,7 +3629,7 @@
       <c r="F36" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="34"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -3647,7 +3650,7 @@
       <c r="F37" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -3672,14 +3675,14 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
@@ -3725,7 +3728,7 @@
       <c r="E43" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="36" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3748,7 +3751,7 @@
       <c r="E44" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="37"/>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
@@ -3766,7 +3769,7 @@
       <c r="E45" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="37"/>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -3784,7 +3787,7 @@
       <c r="E46" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
@@ -3802,7 +3805,7 @@
       <c r="E47" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="37"/>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
@@ -3820,7 +3823,7 @@
       <c r="E48" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="45"/>
+      <c r="F48" s="37"/>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -3838,7 +3841,7 @@
       <c r="E49" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="37"/>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
@@ -3856,7 +3859,7 @@
       <c r="E50" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="37"/>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
@@ -3874,7 +3877,7 @@
       <c r="E51" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="37"/>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
@@ -3892,7 +3895,7 @@
       <c r="E52" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="F52" s="45"/>
+      <c r="F52" s="37"/>
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
@@ -3910,7 +3913,7 @@
       <c r="E53" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F53" s="46"/>
+      <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
@@ -3963,7 +3966,7 @@
         <f>20*LOG10((D57/E57)/(D57/C57))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="31" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3979,7 +3982,7 @@
         <f t="shared" ref="F58:F67" si="0">20*LOG10((D58/E58)/(D58/C58))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="31"/>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
@@ -3993,7 +3996,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="30"/>
+      <c r="G59" s="31"/>
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
@@ -4007,7 +4010,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="30"/>
+      <c r="G60" s="31"/>
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
@@ -4021,7 +4024,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="30"/>
+      <c r="G61" s="31"/>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
@@ -4035,7 +4038,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="30"/>
+      <c r="G62" s="31"/>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
@@ -4049,7 +4052,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="30"/>
+      <c r="G63" s="31"/>
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
@@ -4063,7 +4066,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="30"/>
+      <c r="G64" s="31"/>
     </row>
     <row r="65" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
@@ -4077,7 +4080,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="30"/>
+      <c r="G65" s="31"/>
     </row>
     <row r="66" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
@@ -4091,7 +4094,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="31"/>
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
@@ -4105,7 +4108,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="30"/>
+      <c r="G67" s="31"/>
     </row>
     <row r="68" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
@@ -4116,17 +4119,17 @@
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
@@ -4140,17 +4143,17 @@
       <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
@@ -4808,13 +4811,13 @@
       <c r="E105" s="18"/>
     </row>
     <row r="106" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
     </row>
     <row r="107" spans="1:6" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18"/>
@@ -5243,16 +5246,16 @@
       <c r="E141" s="18"/>
     </row>
     <row r="142" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="40" t="s">
+      <c r="A142" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
-      <c r="F142" s="40"/>
-      <c r="G142" s="40"/>
-      <c r="H142" s="40"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
     </row>
     <row r="143" spans="1:8" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18"/>
@@ -5444,23 +5447,6 @@
     <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A142:H142"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="A69:I69"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G57:G67"/>
     <mergeCell ref="E12:F12"/>
@@ -5477,6 +5463,23 @@
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A142:H142"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A19:I19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2024C.xlsx
+++ b/Shablon/TDS2024C.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="329">
   <si>
     <t>50 нс/дел</t>
   </si>
@@ -1216,32 +1216,6 @@
   </si>
   <si>
     <t>ti4_22</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Протокол периодической поверки № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/27-12-2023/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>± 0,205 мс</t>
@@ -1786,7 +1760,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1849,7 +1823,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1906,9 +1879,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,107 +1984,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2360,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A145" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2376,34 +2349,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="str">
+        <f>"Протокол поверки № 10/"&amp;C161&amp;"/"&amp;C6</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -2416,10 +2388,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="13" t="s">
         <v>82</v>
       </c>
@@ -2432,10 +2404,10 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="17" t="s">
         <v>85</v>
       </c>
@@ -2446,38 +2418,38 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50">
+      <c r="B7" s="45"/>
+      <c r="C7" s="77">
         <v>2012</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
@@ -2488,52 +2460,52 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -2553,117 +2525,117 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="45" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="55" t="s">
+      <c r="F16" s="75"/>
+      <c r="G16" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="56" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="47" t="s">
+      <c r="F17" s="70"/>
+      <c r="G17" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="47" t="s">
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="47" t="s">
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="H19" s="47"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="47" t="s">
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2693,24 +2665,24 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2725,7 +2697,7 @@
       <c r="F28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2736,20 +2708,20 @@
       <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="58" t="s">
-        <v>303</v>
+      <c r="G29" s="65" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2759,19 +2731,19 @@
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="60"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -2780,20 +2752,20 @@
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="58" t="s">
-        <v>304</v>
+      <c r="G31" s="65" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2803,19 +2775,19 @@
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="59"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -2824,19 +2796,19 @@
       <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="59"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -2845,19 +2817,19 @@
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="59"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -2866,19 +2838,19 @@
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="59"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -2887,19 +2859,19 @@
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="59"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -2908,19 +2880,19 @@
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="59"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2929,19 +2901,19 @@
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="59"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2950,33 +2922,33 @@
       <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="60"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2991,1359 +2963,1359 @@
       <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="23">
         <v>5</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>10</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>20</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>50</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>100</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>200</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>500</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>5000</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>10</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="59"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
-        <v>20</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="59"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
-        <v>50</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="59"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
-        <v>100</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F47" s="59"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
-        <v>200</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="59"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
-        <v>500</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="59"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
-        <v>1000</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="59"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>2000</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" s="59"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>5000</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="60"/>
-    </row>
-    <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="34" t="s">
+      <c r="D53" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="E53" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47">
+      <c r="A54" s="66">
         <v>1</v>
       </c>
       <c r="B54" s="4">
         <v>5</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="9" t="e">
         <f>20*LOG10((E54/F54)/(C54/D54))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="47" t="s">
-        <v>304</v>
+      <c r="H54" s="66" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="4">
         <v>10</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="9" t="e">
         <f t="shared" ref="G55:G93" si="0">20*LOG10((E55/F55)/(C55/D55))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="47"/>
+      <c r="H55" s="66"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="4">
         <v>20</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="47"/>
+      <c r="H56" s="66"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="4">
         <v>50</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="47"/>
+      <c r="H57" s="66"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="4">
         <v>100</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="47"/>
+      <c r="H58" s="66"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="4">
         <v>200</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="47"/>
+      <c r="H59" s="66"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="4">
         <v>500</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="47"/>
+      <c r="H60" s="66"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="4">
         <v>1000</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
       <c r="G61" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="47"/>
+      <c r="H61" s="66"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="4">
         <v>2000</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="10"/>
       <c r="G62" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="47"/>
+      <c r="H62" s="66"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="4">
         <v>5000</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="29"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="47"/>
+      <c r="H63" s="66"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47">
+      <c r="A64" s="66">
         <v>2</v>
       </c>
       <c r="B64" s="4">
         <v>5</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="47"/>
+      <c r="H64" s="66"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="4">
         <v>10</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="47"/>
+      <c r="H65" s="66"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="4">
         <v>20</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H66" s="47"/>
+      <c r="H66" s="66"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="4">
         <v>50</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="47"/>
+      <c r="H67" s="66"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="4">
         <v>100</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
       <c r="G68" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="47"/>
+      <c r="H68" s="66"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="4">
         <v>200</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
       <c r="G69" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="47"/>
+      <c r="H69" s="66"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="4">
         <v>500</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="36"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="35"/>
       <c r="G70" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="47"/>
+      <c r="H70" s="66"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="4">
         <v>1000</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
       <c r="F71" s="11"/>
       <c r="G71" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="47"/>
+      <c r="H71" s="66"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="4">
         <v>2000</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="11"/>
       <c r="G72" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="47"/>
+      <c r="H72" s="66"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="4">
         <v>5000</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="29"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="47"/>
+      <c r="H73" s="66"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="47">
+      <c r="A74" s="66">
         <v>3</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
       <c r="G74" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="47"/>
+      <c r="H74" s="66"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="4">
         <v>10</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
       <c r="G75" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="47"/>
+      <c r="H75" s="66"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="4">
         <v>20</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
       <c r="G76" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="47"/>
+      <c r="H76" s="66"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="4">
         <v>50</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
       <c r="G77" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="47"/>
+      <c r="H77" s="66"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="4">
         <v>100</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="47"/>
+      <c r="H78" s="66"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="4">
         <v>200</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
       <c r="G79" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="66"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="4">
         <v>500</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
       <c r="G80" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="66"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="47"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="4">
         <v>1000</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="47"/>
+      <c r="H81" s="66"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="47"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="4">
         <v>2000</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
       <c r="G82" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="47"/>
+      <c r="H82" s="66"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="4">
         <v>5000</v>
       </c>
       <c r="C83" s="10"/>
-      <c r="D83" s="29"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="29"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="47"/>
+      <c r="H83" s="66"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47">
+      <c r="A84" s="66">
         <v>4</v>
       </c>
       <c r="B84" s="4">
         <v>5</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
       <c r="G84" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="47"/>
+      <c r="H84" s="66"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="4">
         <v>10</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
       <c r="G85" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="47"/>
+      <c r="H85" s="66"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="4">
         <v>20</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
       <c r="G86" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="47"/>
+      <c r="H86" s="66"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="4">
         <v>50</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
       <c r="G87" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="47"/>
+      <c r="H87" s="66"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="4">
         <v>100</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
       <c r="G88" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="47"/>
+      <c r="H88" s="66"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="4">
         <v>200</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
       <c r="G89" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="47"/>
+      <c r="H89" s="66"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="4">
         <v>500</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
       <c r="F90" s="11"/>
       <c r="G90" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H90" s="47"/>
+      <c r="H90" s="66"/>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="4">
         <v>1000</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
       <c r="G91" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="47"/>
+      <c r="H91" s="66"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="4">
         <v>2000</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
       <c r="G92" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="47"/>
+      <c r="H92" s="66"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="4">
         <v>5000</v>
       </c>
       <c r="C93" s="10"/>
-      <c r="D93" s="29"/>
+      <c r="D93" s="28"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="29"/>
+      <c r="F93" s="28"/>
       <c r="G93" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="47"/>
+      <c r="H93" s="66"/>
     </row>
     <row r="94" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
     </row>
     <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
     </row>
     <row r="96" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
     </row>
     <row r="98" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
     </row>
     <row r="99" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="D99" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="E99" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="F99" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="F99" s="34" t="s">
+    </row>
+    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" s="29" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F106" s="30" t="s">
+    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F107" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="30" t="s">
+    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F108" s="30" t="s">
+    <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E109" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109" s="34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F110" s="30" t="s">
+    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F111" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F111" s="30" t="s">
+    <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F112" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F112" s="30" t="s">
+    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F113" s="29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F113" s="30" t="s">
+    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F114" s="29" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F114" s="30" t="s">
+    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F115" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F115" s="30" t="s">
+    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F116" s="29" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="F116" s="30" t="s">
+    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F117" s="29" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F117" s="30" t="s">
+    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F118" s="29" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F118" s="30" t="s">
+    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F120" s="29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E119" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="E120" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F120" s="30" t="s">
+    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F121" s="30" t="s">
+    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F122" s="29" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="E122" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4354,13 +4326,13 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
     </row>
     <row r="125" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
@@ -4370,463 +4342,463 @@
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="D126" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="E126" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="E126" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="F126" s="34" t="s">
-        <v>325</v>
+      <c r="F126" s="33" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E127" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F127" s="30" t="s">
+      <c r="F127" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F128" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E128" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F128" s="30" t="s">
+    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F129" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F129" s="30" t="s">
+    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" s="30" t="s">
+    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F131" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F131" s="30" t="s">
+    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F132" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F132" s="30" t="s">
+    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F133" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E133" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F133" s="30" t="s">
+    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F134" s="29" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E134" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F134" s="30" t="s">
+    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F135" s="29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E135" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F135" s="30" t="s">
+    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F136" s="29" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E136" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F136" s="30" t="s">
+    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F137" s="29" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E137" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F137" s="30" t="s">
+    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F138" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E138" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F138" s="30" t="s">
+    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F139" s="29" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D139" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E139" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F139" s="30" t="s">
+    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F140" s="30" t="s">
+    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F141" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F141" s="30" t="s">
+    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F142" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="F142" s="30" t="s">
+    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" s="29" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" s="30" t="s">
+    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F144" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F144" s="30" t="s">
+    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F145" s="29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F145" s="30" t="s">
+    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F146" s="29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="E146" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F146" s="30" t="s">
+    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F147" s="29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="E147" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F147" s="30" t="s">
+    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148" s="29" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="E148" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="F148" s="30" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4837,16 +4809,16 @@
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="38" t="s">
+      <c r="A150" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="38"/>
-      <c r="C150" s="38"/>
-      <c r="D150" s="38"/>
-      <c r="E150" s="38"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="38"/>
-      <c r="H150" s="38"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="37"/>
     </row>
     <row r="151" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
@@ -4856,32 +4828,32 @@
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="30" t="s">
+      <c r="D152" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="34" t="s">
+      <c r="E152" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F152" s="34" t="s">
+      <c r="F152" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="30" t="s">
+      <c r="A153" s="28"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="29" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4893,7 +4865,7 @@
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B155" s="6"/>
@@ -4908,32 +4880,58 @@
     </row>
     <row r="158" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="53" t="s">
+      <c r="A159" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B159" s="53"/>
-      <c r="C159" s="22" t="s">
+      <c r="B159" s="68"/>
+      <c r="C159" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="54" t="s">
+      <c r="D159" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E159" s="54"/>
-      <c r="F159" s="23" t="s">
+      <c r="E159" s="42"/>
+      <c r="F159" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="54" t="s">
+      <c r="C161" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D161" s="54"/>
+      <c r="D161" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="H54:H93"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="F43:F52"/>
     <mergeCell ref="A9:B9"/>
@@ -4949,32 +4947,6 @@
     <mergeCell ref="A74:A83"/>
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="H54:H93"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2024C.xlsx
+++ b/Shablon/TDS2024C.xlsx
@@ -5,23 +5,21 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="489">
   <si>
     <t>50 нс/дел</t>
   </si>
@@ -1462,14 +1460,493 @@
       <t>, дБ</t>
     </r>
   </si>
+  <si>
+    <t>uout5_1_0</t>
+  </si>
+  <si>
+    <t>uin5_1_0</t>
+  </si>
+  <si>
+    <t>uoutgr1_0</t>
+  </si>
+  <si>
+    <t>uingr1_0</t>
+  </si>
+  <si>
+    <t>uout5_1_1</t>
+  </si>
+  <si>
+    <t>uin5_1_1</t>
+  </si>
+  <si>
+    <t>uoutgr1_1</t>
+  </si>
+  <si>
+    <t>uingr1_1</t>
+  </si>
+  <si>
+    <t>uout5_1_2</t>
+  </si>
+  <si>
+    <t>uin5_1_2</t>
+  </si>
+  <si>
+    <t>uoutgr1_2</t>
+  </si>
+  <si>
+    <t>uingr1_2</t>
+  </si>
+  <si>
+    <t>uout5_1_3</t>
+  </si>
+  <si>
+    <t>uin5_1_3</t>
+  </si>
+  <si>
+    <t>uoutgr1_3</t>
+  </si>
+  <si>
+    <t>uingr1_3</t>
+  </si>
+  <si>
+    <t>uout5_1_4</t>
+  </si>
+  <si>
+    <t>uin5_1_4</t>
+  </si>
+  <si>
+    <t>uoutgr1_4</t>
+  </si>
+  <si>
+    <t>uingr1_4</t>
+  </si>
+  <si>
+    <t>uout5_1_5</t>
+  </si>
+  <si>
+    <t>uin5_1_5</t>
+  </si>
+  <si>
+    <t>uoutgr1_5</t>
+  </si>
+  <si>
+    <t>uingr1_5</t>
+  </si>
+  <si>
+    <t>uout5_1_6</t>
+  </si>
+  <si>
+    <t>uin5_1_6</t>
+  </si>
+  <si>
+    <t>uoutgr1_6</t>
+  </si>
+  <si>
+    <t>uingr1_6</t>
+  </si>
+  <si>
+    <t>uout5_1_7</t>
+  </si>
+  <si>
+    <t>uin5_1_7</t>
+  </si>
+  <si>
+    <t>uoutgr1_7</t>
+  </si>
+  <si>
+    <t>uingr1_7</t>
+  </si>
+  <si>
+    <t>uout5_1_8</t>
+  </si>
+  <si>
+    <t>uin5_1_8</t>
+  </si>
+  <si>
+    <t>uoutgr1_8</t>
+  </si>
+  <si>
+    <t>uingr1_8</t>
+  </si>
+  <si>
+    <t>uout5_1_9</t>
+  </si>
+  <si>
+    <t>uin5_1_9</t>
+  </si>
+  <si>
+    <t>uoutgr1_9</t>
+  </si>
+  <si>
+    <t>uingr1_9</t>
+  </si>
+  <si>
+    <t>uout5_2_0</t>
+  </si>
+  <si>
+    <t>uin5_2_0</t>
+  </si>
+  <si>
+    <t>uoutgr2_0</t>
+  </si>
+  <si>
+    <t>uingr2_0</t>
+  </si>
+  <si>
+    <t>uout5_2_1</t>
+  </si>
+  <si>
+    <t>uin5_2_1</t>
+  </si>
+  <si>
+    <t>uoutgr2_1</t>
+  </si>
+  <si>
+    <t>uingr2_1</t>
+  </si>
+  <si>
+    <t>uout5_2_2</t>
+  </si>
+  <si>
+    <t>uin5_2_2</t>
+  </si>
+  <si>
+    <t>uoutgr2_2</t>
+  </si>
+  <si>
+    <t>uingr2_2</t>
+  </si>
+  <si>
+    <t>uout5_2_3</t>
+  </si>
+  <si>
+    <t>uin5_2_3</t>
+  </si>
+  <si>
+    <t>uoutgr2_3</t>
+  </si>
+  <si>
+    <t>uingr2_3</t>
+  </si>
+  <si>
+    <t>uout5_2_4</t>
+  </si>
+  <si>
+    <t>uin5_2_4</t>
+  </si>
+  <si>
+    <t>uoutgr2_4</t>
+  </si>
+  <si>
+    <t>uingr2_4</t>
+  </si>
+  <si>
+    <t>uout5_2_5</t>
+  </si>
+  <si>
+    <t>uin5_2_5</t>
+  </si>
+  <si>
+    <t>uoutgr2_5</t>
+  </si>
+  <si>
+    <t>uingr2_5</t>
+  </si>
+  <si>
+    <t>uout5_2_6</t>
+  </si>
+  <si>
+    <t>uin5_2_6</t>
+  </si>
+  <si>
+    <t>uoutgr2_6</t>
+  </si>
+  <si>
+    <t>uingr2_6</t>
+  </si>
+  <si>
+    <t>uout5_2_7</t>
+  </si>
+  <si>
+    <t>uin5_2_7</t>
+  </si>
+  <si>
+    <t>uoutgr2_7</t>
+  </si>
+  <si>
+    <t>uingr2_7</t>
+  </si>
+  <si>
+    <t>uout5_2_8</t>
+  </si>
+  <si>
+    <t>uin5_2_8</t>
+  </si>
+  <si>
+    <t>uoutgr2_8</t>
+  </si>
+  <si>
+    <t>uingr2_8</t>
+  </si>
+  <si>
+    <t>uout5_2_9</t>
+  </si>
+  <si>
+    <t>uin5_2_9</t>
+  </si>
+  <si>
+    <t>uoutgr2_9</t>
+  </si>
+  <si>
+    <t>uingr2_9</t>
+  </si>
+  <si>
+    <t>uout5_3_0</t>
+  </si>
+  <si>
+    <t>uin5_3_0</t>
+  </si>
+  <si>
+    <t>uoutgr3_0</t>
+  </si>
+  <si>
+    <t>uingr3_0</t>
+  </si>
+  <si>
+    <t>uout5_3_1</t>
+  </si>
+  <si>
+    <t>uin5_3_1</t>
+  </si>
+  <si>
+    <t>uoutgr3_1</t>
+  </si>
+  <si>
+    <t>uingr3_1</t>
+  </si>
+  <si>
+    <t>uout5_3_2</t>
+  </si>
+  <si>
+    <t>uin5_3_2</t>
+  </si>
+  <si>
+    <t>uoutgr3_2</t>
+  </si>
+  <si>
+    <t>uingr3_2</t>
+  </si>
+  <si>
+    <t>uout5_3_3</t>
+  </si>
+  <si>
+    <t>uin5_3_3</t>
+  </si>
+  <si>
+    <t>uoutgr3_3</t>
+  </si>
+  <si>
+    <t>uingr3_3</t>
+  </si>
+  <si>
+    <t>uout5_3_4</t>
+  </si>
+  <si>
+    <t>uin5_3_4</t>
+  </si>
+  <si>
+    <t>uoutgr3_4</t>
+  </si>
+  <si>
+    <t>uingr3_4</t>
+  </si>
+  <si>
+    <t>uout5_3_5</t>
+  </si>
+  <si>
+    <t>uin5_3_5</t>
+  </si>
+  <si>
+    <t>uoutgr3_5</t>
+  </si>
+  <si>
+    <t>uingr3_5</t>
+  </si>
+  <si>
+    <t>uout5_3_6</t>
+  </si>
+  <si>
+    <t>uin5_3_6</t>
+  </si>
+  <si>
+    <t>uoutgr3_6</t>
+  </si>
+  <si>
+    <t>uingr3_6</t>
+  </si>
+  <si>
+    <t>uout5_3_7</t>
+  </si>
+  <si>
+    <t>uin5_3_7</t>
+  </si>
+  <si>
+    <t>uoutgr3_7</t>
+  </si>
+  <si>
+    <t>uingr3_7</t>
+  </si>
+  <si>
+    <t>uout5_3_8</t>
+  </si>
+  <si>
+    <t>uin5_3_8</t>
+  </si>
+  <si>
+    <t>uoutgr3_8</t>
+  </si>
+  <si>
+    <t>uingr3_8</t>
+  </si>
+  <si>
+    <t>uout5_3_9</t>
+  </si>
+  <si>
+    <t>uin5_3_9</t>
+  </si>
+  <si>
+    <t>uoutgr3_9</t>
+  </si>
+  <si>
+    <t>uingr3_9</t>
+  </si>
+  <si>
+    <t>uout5_4_0</t>
+  </si>
+  <si>
+    <t>uin5_4_0</t>
+  </si>
+  <si>
+    <t>uoutgr4_0</t>
+  </si>
+  <si>
+    <t>uingr4_0</t>
+  </si>
+  <si>
+    <t>uout5_4_1</t>
+  </si>
+  <si>
+    <t>uin5_4_1</t>
+  </si>
+  <si>
+    <t>uoutgr4_1</t>
+  </si>
+  <si>
+    <t>uingr4_1</t>
+  </si>
+  <si>
+    <t>uout5_4_2</t>
+  </si>
+  <si>
+    <t>uin5_4_2</t>
+  </si>
+  <si>
+    <t>uoutgr4_2</t>
+  </si>
+  <si>
+    <t>uingr4_2</t>
+  </si>
+  <si>
+    <t>uout5_4_3</t>
+  </si>
+  <si>
+    <t>uin5_4_3</t>
+  </si>
+  <si>
+    <t>uoutgr4_3</t>
+  </si>
+  <si>
+    <t>uingr4_3</t>
+  </si>
+  <si>
+    <t>uout5_4_4</t>
+  </si>
+  <si>
+    <t>uin5_4_4</t>
+  </si>
+  <si>
+    <t>uoutgr4_4</t>
+  </si>
+  <si>
+    <t>uingr4_4</t>
+  </si>
+  <si>
+    <t>uout5_4_5</t>
+  </si>
+  <si>
+    <t>uin5_4_5</t>
+  </si>
+  <si>
+    <t>uoutgr4_5</t>
+  </si>
+  <si>
+    <t>uingr4_5</t>
+  </si>
+  <si>
+    <t>uout5_4_6</t>
+  </si>
+  <si>
+    <t>uin5_4_6</t>
+  </si>
+  <si>
+    <t>uoutgr4_6</t>
+  </si>
+  <si>
+    <t>uingr4_6</t>
+  </si>
+  <si>
+    <t>uout5_4_7</t>
+  </si>
+  <si>
+    <t>uin5_4_7</t>
+  </si>
+  <si>
+    <t>uoutgr4_7</t>
+  </si>
+  <si>
+    <t>uingr4_7</t>
+  </si>
+  <si>
+    <t>uout5_4_8</t>
+  </si>
+  <si>
+    <t>uin5_4_8</t>
+  </si>
+  <si>
+    <t>uoutgr4_8</t>
+  </si>
+  <si>
+    <t>uingr4_8</t>
+  </si>
+  <si>
+    <t>uout5_4_9</t>
+  </si>
+  <si>
+    <t>uin5_4_9</t>
+  </si>
+  <si>
+    <t>uoutgr4_9</t>
+  </si>
+  <si>
+    <t>uingr4_9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1760,7 +2237,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1785,15 +2262,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1863,9 +2331,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1969,32 +2434,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2303,38 +2768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2349,33 +2786,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="str">
+      <c r="A3" s="74" t="str">
         <f>"Протокол поверки № 10/"&amp;C161&amp;"/"&amp;C6</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -2388,124 +2825,124 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="77">
+      <c r="B7" s="41"/>
+      <c r="C7" s="72">
         <v>2012</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
     </row>
     <row r="14" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -2525,117 +2962,117 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="74" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="70"/>
+      <c r="G16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="69"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="70" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="66" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="70" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="66" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="H18" s="66"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="70" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="66" t="s">
+      <c r="F19" s="66"/>
+      <c r="G19" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="66" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="66" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,24 +3102,24 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2697,7 +3134,7 @@
       <c r="F28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="26" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2708,19 +3145,19 @@
       <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="61" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2731,19 +3168,19 @@
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -2752,19 +3189,19 @@
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="61" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2775,19 +3212,19 @@
       <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -2796,19 +3233,19 @@
       <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -2817,19 +3254,19 @@
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="43"/>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -2838,19 +3275,19 @@
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -2859,19 +3296,19 @@
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="43"/>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -2880,19 +3317,19 @@
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2901,19 +3338,19 @@
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="43"/>
+      <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2922,33 +3359,33 @@
       <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2963,1358 +3400,1678 @@
       <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="20">
         <v>5</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="39" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="A44" s="20">
         <v>10</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="43"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="A45" s="21">
         <v>20</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="43"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="A46" s="21">
         <v>50</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="43"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="A47" s="21">
         <v>100</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="43"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
+      <c r="A48" s="22">
         <v>200</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="43"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="A49" s="22">
         <v>500</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="43"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
+      <c r="A50" s="22">
         <v>1000</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="43"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+      <c r="A51" s="20">
         <v>2000</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="43"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+      <c r="A52" s="20">
         <v>5000</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="66">
+      <c r="A54" s="62">
         <v>1</v>
       </c>
       <c r="B54" s="4">
         <v>5</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
+      <c r="C54" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="G54" s="9" t="e">
         <f>20*LOG10((E54/F54)/(C54/D54))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="66" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" s="62" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="66"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="4">
         <v>10</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
+      <c r="C55" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G55" s="9" t="e">
         <f t="shared" ref="G55:G93" si="0">20*LOG10((E55/F55)/(C55/D55))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="66"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="4">
         <v>20</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
+      <c r="C56" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="G56" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" s="62"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="66"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="4">
         <v>50</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="C57" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>344</v>
+      </c>
       <c r="G57" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H57" s="62"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="66"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="4">
         <v>100</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+      <c r="C58" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="G58" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="62"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="4">
         <v>200</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="C59" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>352</v>
+      </c>
       <c r="G59" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H59" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="62"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="66"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="4">
         <v>500</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
+      <c r="C60" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>356</v>
+      </c>
       <c r="G60" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="66"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="4">
         <v>1000</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
+      <c r="C61" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>360</v>
+      </c>
       <c r="G61" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="62"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="66"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="4">
         <v>2000</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="10"/>
+      <c r="C62" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>364</v>
+      </c>
       <c r="G62" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" s="62"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="66"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="4">
         <v>5000</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="C63" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="G63" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="66">
+      <c r="A64" s="62">
         <v>2</v>
       </c>
       <c r="B64" s="4">
         <v>5</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
+      <c r="C64" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="G64" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="66"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="4">
         <v>10</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
+      <c r="C65" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>376</v>
+      </c>
       <c r="G65" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" s="62"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="66"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="4">
         <v>20</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
+      <c r="C66" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>380</v>
+      </c>
       <c r="G66" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" s="62"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="66"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="4">
         <v>50</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
+      <c r="C67" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>384</v>
+      </c>
       <c r="G67" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="66"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="4">
         <v>100</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="C68" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="G68" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="66"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="4">
         <v>200</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
+      <c r="C69" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>392</v>
+      </c>
       <c r="G69" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" s="62"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="66"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="4">
         <v>500</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="35"/>
+      <c r="C70" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>396</v>
+      </c>
       <c r="G70" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" s="62"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="66"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="4">
         <v>1000</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="11"/>
+      <c r="C71" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="G71" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="66"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="4">
         <v>2000</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="11"/>
+      <c r="C72" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="G72" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="66"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="4">
         <v>5000</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11"/>
+      <c r="C73" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>408</v>
+      </c>
       <c r="G73" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H73" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" s="62"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="66">
+      <c r="A74" s="62">
         <v>3</v>
       </c>
       <c r="B74" s="4">
         <v>5</v>
       </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
+      <c r="C74" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="G74" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H74" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" s="62"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="66"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="4">
         <v>10</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
+      <c r="C75" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>416</v>
+      </c>
       <c r="G75" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H75" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" s="62"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="66"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="4">
         <v>20</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
+      <c r="C76" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>420</v>
+      </c>
       <c r="G76" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" s="62"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="66"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="4">
         <v>50</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
+      <c r="C77" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="G77" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" s="62"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="66"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="4">
         <v>100</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
+      <c r="C78" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>428</v>
+      </c>
       <c r="G78" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="66"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="4">
         <v>200</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="C79" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="G79" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H79" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H79" s="62"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="66"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="4">
         <v>500</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="C80" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="G80" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" s="62"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="66"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="4">
         <v>1000</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
+      <c r="C81" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="G81" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" s="62"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="66"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="4">
         <v>2000</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
+      <c r="C82" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>444</v>
+      </c>
       <c r="G82" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H82" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" s="62"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="66"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="4">
         <v>5000</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="28"/>
+      <c r="C83" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="G83" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="62"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="66">
+      <c r="A84" s="62">
         <v>4</v>
       </c>
       <c r="B84" s="4">
         <v>5</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
+      <c r="C84" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="G84" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" s="62"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="66"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="4">
         <v>10</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
+      <c r="C85" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="G85" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H85" s="62"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="66"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="4">
         <v>20</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
+      <c r="C86" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="G86" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" s="62"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="66"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="4">
         <v>50</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
+      <c r="C87" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="G87" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H87" s="62"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="66"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="4">
         <v>100</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
+      <c r="C88" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="G88" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H88" s="62"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="66"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="4">
         <v>200</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
+      <c r="C89" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>472</v>
+      </c>
       <c r="G89" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H89" s="62"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="66"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="4">
         <v>500</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="11"/>
+      <c r="C90" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>476</v>
+      </c>
       <c r="G90" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" s="62"/>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="66"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="4">
         <v>1000</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
+      <c r="C91" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>480</v>
+      </c>
       <c r="G91" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H91" s="62"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="66"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="4">
         <v>2000</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
+      <c r="C92" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="G92" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H92" s="62"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="66"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="4">
         <v>5000</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="28"/>
+      <c r="C93" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>488</v>
+      </c>
       <c r="G93" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="66"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" s="62"/>
     </row>
     <row r="94" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
     </row>
     <row r="96" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="30" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F100" s="29" t="s">
+      <c r="F100" s="26" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="29" t="s">
+      <c r="F101" s="26" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="29" t="s">
+      <c r="F102" s="26" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F103" s="29" t="s">
+      <c r="F103" s="26" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F104" s="29" t="s">
+      <c r="F104" s="26" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F105" s="26" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F106" s="29" t="s">
+      <c r="F106" s="26" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="26" t="s">
+      <c r="B107" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F107" s="26" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="26" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C109" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="E109" s="33" t="s">
+      <c r="E109" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="F109" s="30" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="26" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B111" s="26" t="s">
+      <c r="B111" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="F111" s="29" t="s">
+      <c r="F111" s="26" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="29" t="s">
+      <c r="A112" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F112" s="29" t="s">
+      <c r="F112" s="26" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="26" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="29" t="s">
+      <c r="A114" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F114" s="26" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="26" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="F116" s="29" t="s">
+      <c r="F116" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E117" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F117" s="29" t="s">
+      <c r="F117" s="26" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E118" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="F118" s="29" t="s">
+      <c r="F118" s="26" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="26" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F120" s="29" t="s">
+      <c r="F120" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F121" s="26" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="26" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4326,13 +5083,13 @@
       <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="37" t="s">
+      <c r="A124" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
     </row>
     <row r="125" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
@@ -4342,462 +5099,462 @@
       <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="C126" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="D126" s="33" t="s">
+      <c r="D126" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E126" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="F126" s="33" t="s">
+      <c r="F126" s="30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="F127" s="29" t="s">
+      <c r="F127" s="26" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F128" s="29" t="s">
+      <c r="F128" s="26" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="F129" s="29" t="s">
+      <c r="F129" s="26" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F130" s="29" t="s">
+      <c r="F130" s="26" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F131" s="29" t="s">
+      <c r="F131" s="26" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F132" s="29" t="s">
+      <c r="F132" s="26" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F133" s="29" t="s">
+      <c r="F133" s="26" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D134" s="26" t="s">
+      <c r="D134" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F134" s="26" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B135" s="26" t="s">
+      <c r="B135" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F135" s="29" t="s">
+      <c r="F135" s="26" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B136" s="26" t="s">
+      <c r="B136" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="F136" s="29" t="s">
+      <c r="F136" s="26" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="B137" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="F137" s="29" t="s">
+      <c r="F137" s="26" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E138" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F138" s="29" t="s">
+      <c r="F138" s="26" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="29" t="s">
+      <c r="A139" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B139" s="26" t="s">
+      <c r="B139" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D139" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E139" s="26" t="s">
+      <c r="E139" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="F139" s="29" t="s">
+      <c r="F139" s="26" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="29" t="s">
+      <c r="A140" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D140" s="26" t="s">
+      <c r="D140" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F140" s="29" t="s">
+      <c r="F140" s="26" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="29" t="s">
+      <c r="A141" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="F141" s="29" t="s">
+      <c r="F141" s="26" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="29" t="s">
+      <c r="A142" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="F142" s="29" t="s">
+      <c r="F142" s="26" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="29" t="s">
+      <c r="A143" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E143" s="26" t="s">
+      <c r="E143" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F143" s="29" t="s">
+      <c r="F143" s="26" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="29" t="s">
+      <c r="A144" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="B144" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D144" s="26" t="s">
+      <c r="D144" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="F144" s="29" t="s">
+      <c r="F144" s="26" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="29" t="s">
+      <c r="A145" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="F145" s="29" t="s">
+      <c r="F145" s="26" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="29" t="s">
+      <c r="A146" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="B146" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F146" s="29" t="s">
+      <c r="F146" s="26" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="29" t="s">
+      <c r="A147" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="B147" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="F147" s="29" t="s">
+      <c r="F147" s="26" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
+      <c r="A148" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F148" s="29" t="s">
+      <c r="F148" s="26" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4809,16 +5566,16 @@
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="37" t="s">
+      <c r="A150" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="37"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
     </row>
     <row r="151" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
@@ -4828,32 +5585,32 @@
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C152" s="29" t="s">
+      <c r="C152" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="29" t="s">
+      <c r="D152" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F152" s="33" t="s">
+      <c r="F152" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="28"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="29" t="s">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="26" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4865,7 +5622,7 @@
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B155" s="6"/>
@@ -4880,29 +5637,29 @@
     </row>
     <row r="158" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="68" t="s">
+      <c r="A159" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B159" s="68"/>
-      <c r="C159" s="21" t="s">
+      <c r="B159" s="64"/>
+      <c r="C159" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="42" t="s">
+      <c r="D159" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E159" s="42"/>
-      <c r="F159" s="22" t="s">
+      <c r="E159" s="38"/>
+      <c r="F159" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="42" t="s">
+      <c r="C161" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D161" s="42"/>
+      <c r="D161" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -4920,7 +5677,7 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="D159:E159"/>
     <mergeCell ref="H54:H93"/>
     <mergeCell ref="G16:H16"/>
@@ -4928,7 +5685,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="G31:G39"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:F21"/>
@@ -4947,6 +5703,7 @@
     <mergeCell ref="A74:A83"/>
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A159:B159"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TDS2024C.xlsx
+++ b/Shablon/TDS2024C.xlsx
@@ -2347,17 +2347,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2416,50 +2458,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2770,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:F93"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2786,33 +2786,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="str">
+      <c r="A3" s="47" t="str">
         <f>"Протокол поверки № 10/"&amp;C161&amp;"/"&amp;C6</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -2825,10 +2825,10 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
@@ -2841,10 +2841,10 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14" t="s">
         <v>85</v>
       </c>
@@ -2855,38 +2855,38 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="72">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45">
         <v>2012</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="32"/>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
@@ -2897,52 +2897,52 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -2962,96 +2962,96 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="69" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="65" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="66" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="62" t="s">
+      <c r="F17" s="51"/>
+      <c r="G17" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="66" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="62" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="62" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="62"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="62" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="H20" s="62"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="62" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="H21" s="62"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
@@ -3157,7 +3157,7 @@
       <c r="F29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="52" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="F30" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="40"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -3201,7 +3201,7 @@
       <c r="F31" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="52" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       <c r="F32" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -3245,7 +3245,7 @@
       <c r="F33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -3266,7 +3266,7 @@
       <c r="F34" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -3287,7 +3287,7 @@
       <c r="F35" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="39"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -3308,7 +3308,7 @@
       <c r="F36" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -3329,7 +3329,7 @@
       <c r="F37" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -3350,7 +3350,7 @@
       <c r="F38" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -3371,7 +3371,7 @@
       <c r="F39" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="40"/>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3420,7 +3420,7 @@
       <c r="E43" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="53" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3440,7 +3440,7 @@
       <c r="E44" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="39"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
@@ -3458,7 +3458,7 @@
       <c r="E45" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="39"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
@@ -3476,7 +3476,7 @@
       <c r="E46" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="39"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
@@ -3494,7 +3494,7 @@
       <c r="E47" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="39"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
@@ -3512,7 +3512,7 @@
       <c r="E48" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="39"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
@@ -3530,7 +3530,7 @@
       <c r="E49" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="39"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
@@ -3548,7 +3548,7 @@
       <c r="E50" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="39"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
@@ -3566,7 +3566,7 @@
       <c r="E51" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="39"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
@@ -3584,7 +3584,7 @@
       <c r="E52" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F52" s="40"/>
+      <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
@@ -3613,7 +3613,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62">
+      <c r="A54" s="41">
         <v>1</v>
       </c>
       <c r="B54" s="4">
@@ -3635,12 +3635,12 @@
         <f>20*LOG10((E54/F54)/(C54/D54))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="41" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="4">
         <v>10</v>
       </c>
@@ -3660,10 +3660,10 @@
         <f t="shared" ref="G55:G93" si="0">20*LOG10((E55/F55)/(C55/D55))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H55" s="62"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="4">
         <v>20</v>
       </c>
@@ -3683,10 +3683,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H56" s="62"/>
+      <c r="H56" s="41"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="4">
         <v>50</v>
       </c>
@@ -3706,10 +3706,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="62"/>
+      <c r="H57" s="41"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="4">
         <v>100</v>
       </c>
@@ -3729,10 +3729,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="62"/>
+      <c r="H58" s="41"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="4">
         <v>200</v>
       </c>
@@ -3752,10 +3752,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="62"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="4">
         <v>500</v>
       </c>
@@ -3775,10 +3775,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H60" s="62"/>
+      <c r="H60" s="41"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="4">
         <v>1000</v>
       </c>
@@ -3798,10 +3798,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="62"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="4">
         <v>2000</v>
       </c>
@@ -3821,10 +3821,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H62" s="62"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="4">
         <v>5000</v>
       </c>
@@ -3844,10 +3844,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H63" s="62"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="62">
+      <c r="A64" s="41">
         <v>2</v>
       </c>
       <c r="B64" s="4">
@@ -3869,10 +3869,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H64" s="62"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="4">
         <v>10</v>
       </c>
@@ -3892,10 +3892,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="62"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="4">
         <v>20</v>
       </c>
@@ -3915,10 +3915,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="62"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="4">
         <v>50</v>
       </c>
@@ -3938,10 +3938,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H67" s="62"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="4">
         <v>100</v>
       </c>
@@ -3961,10 +3961,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H68" s="62"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="4">
         <v>200</v>
       </c>
@@ -3984,10 +3984,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H69" s="62"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="4">
         <v>500</v>
       </c>
@@ -4007,10 +4007,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H70" s="62"/>
+      <c r="H70" s="41"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4">
         <v>1000</v>
       </c>
@@ -4030,10 +4030,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H71" s="62"/>
+      <c r="H71" s="41"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="4">
         <v>2000</v>
       </c>
@@ -4053,10 +4053,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H72" s="62"/>
+      <c r="H72" s="41"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="4">
         <v>5000</v>
       </c>
@@ -4076,10 +4076,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H73" s="62"/>
+      <c r="H73" s="41"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="62">
+      <c r="A74" s="41">
         <v>3</v>
       </c>
       <c r="B74" s="4">
@@ -4101,10 +4101,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H74" s="62"/>
+      <c r="H74" s="41"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="4">
         <v>10</v>
       </c>
@@ -4124,10 +4124,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H75" s="62"/>
+      <c r="H75" s="41"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="4">
         <v>20</v>
       </c>
@@ -4147,10 +4147,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H76" s="62"/>
+      <c r="H76" s="41"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="4">
         <v>50</v>
       </c>
@@ -4170,10 +4170,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H77" s="62"/>
+      <c r="H77" s="41"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="4">
         <v>100</v>
       </c>
@@ -4193,10 +4193,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H78" s="62"/>
+      <c r="H78" s="41"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="4">
         <v>200</v>
       </c>
@@ -4216,10 +4216,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H79" s="62"/>
+      <c r="H79" s="41"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="4">
         <v>500</v>
       </c>
@@ -4239,10 +4239,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="62"/>
+      <c r="H80" s="41"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="4">
         <v>1000</v>
       </c>
@@ -4262,10 +4262,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H81" s="62"/>
+      <c r="H81" s="41"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="4">
         <v>2000</v>
       </c>
@@ -4285,10 +4285,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H82" s="62"/>
+      <c r="H82" s="41"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="4">
         <v>5000</v>
       </c>
@@ -4308,10 +4308,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H83" s="62"/>
+      <c r="H83" s="41"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62">
+      <c r="A84" s="41">
         <v>4</v>
       </c>
       <c r="B84" s="4">
@@ -4333,10 +4333,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H84" s="62"/>
+      <c r="H84" s="41"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="4">
         <v>10</v>
       </c>
@@ -4356,10 +4356,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H85" s="62"/>
+      <c r="H85" s="41"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="4">
         <v>20</v>
       </c>
@@ -4379,10 +4379,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H86" s="62"/>
+      <c r="H86" s="41"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="4">
         <v>50</v>
       </c>
@@ -4402,10 +4402,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H87" s="62"/>
+      <c r="H87" s="41"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="4">
         <v>100</v>
       </c>
@@ -4425,10 +4425,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H88" s="62"/>
+      <c r="H88" s="41"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="62"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="4">
         <v>200</v>
       </c>
@@ -4448,10 +4448,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H89" s="62"/>
+      <c r="H89" s="41"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="62"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="4">
         <v>500</v>
       </c>
@@ -4471,10 +4471,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H90" s="62"/>
+      <c r="H90" s="41"/>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="4">
         <v>1000</v>
       </c>
@@ -4494,10 +4494,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H91" s="62"/>
+      <c r="H91" s="41"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="62"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="4">
         <v>2000</v>
       </c>
@@ -4517,10 +4517,10 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H92" s="62"/>
+      <c r="H92" s="41"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="4">
         <v>5000</v>
       </c>
@@ -4540,7 +4540,7 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H93" s="62"/>
+      <c r="H93" s="41"/>
     </row>
     <row r="94" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
@@ -5637,17 +5637,17 @@
     </row>
     <row r="158" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="64" t="s">
+      <c r="A159" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B159" s="64"/>
+      <c r="B159" s="75"/>
       <c r="C159" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="D159" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E159" s="38"/>
+      <c r="E159" s="49"/>
       <c r="F159" s="19" t="s">
         <v>98</v>
       </c>
@@ -5656,38 +5656,13 @@
       <c r="B161" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D161" s="38"/>
+      <c r="D161" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="H54:H93"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="F43:F52"/>
     <mergeCell ref="A9:B9"/>
@@ -5704,6 +5679,31 @@
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="H54:H93"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>
